--- a/DATA_goal/Junction_Flooding_50.xlsx
+++ b/DATA_goal/Junction_Flooding_50.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>40751.40277777778</v>
+        <v>40751.4027662037</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>13.39</v>
@@ -1663,7 +1663,7 @@
         <v>1.38</v>
       </c>
       <c r="Z11" s="4" t="n">
-        <v>21.25</v>
+        <v>21.24</v>
       </c>
       <c r="AA11" s="4" t="n">
         <v>8.58</v>
@@ -1688,110 +1688,6 @@
       </c>
       <c r="AH11" s="4" t="n">
         <v>12.15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40751.40972222222</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_50.xlsx
+++ b/DATA_goal/Junction_Flooding_50.xlsx
@@ -451,26 +451,26 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>40751.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>2.06</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>10.7</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.51</v>
+        <v>2.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.23</v>
+        <v>8.42</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.55</v>
+        <v>0.46</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.34</v>
+        <v>3.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.18</v>
+        <v>2.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.55</v>
+        <v>4.16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.34</v>
+        <v>16.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.48</v>
+        <v>3.15</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.16</v>
+        <v>2.12</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.93</v>
+        <v>3.79</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.21</v>
+        <v>2.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.78</v>
+        <v>2.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.01</v>
+        <v>4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.19</v>
+        <v>14.72</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.41</v>
+        <v>2.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.9</v>
+        <v>1.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.59</v>
+        <v>3.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40751.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>1.01</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>38.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.06</v>
-      </c>
       <c r="AC6" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>48.6</v>
+        <v>4.86</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40751.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>38.67</v>
+        <v>3.87</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>31.61</v>
+        <v>3.16</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>54.66</v>
+        <v>5.47</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.48</v>
+        <v>2.15</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>19.76</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>204.42</v>
+        <v>20.44</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>38.92</v>
+        <v>3.89</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>26.16</v>
+        <v>2.62</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.89</v>
+        <v>2.69</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>49.79</v>
+        <v>4.98</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40751.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>36.58</v>
+        <v>3.66</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>29.94</v>
+        <v>2.99</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>52.09</v>
+        <v>5.21</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>20.32</v>
+        <v>2.03</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>15.52</v>
+        <v>1.55</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>192.97</v>
+        <v>19.3</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>36.82</v>
+        <v>3.68</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>24.77</v>
+        <v>2.48</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>47.43</v>
+        <v>4.74</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40751.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>39.71</v>
+        <v>3.97</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>32.57</v>
+        <v>3.26</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.15</v>
+        <v>1.42</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>55.96</v>
+        <v>5.6</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.07</v>
+        <v>2.21</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.55</v>
+        <v>1.46</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20.33</v>
+        <v>2.03</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>210.14</v>
+        <v>21.01</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>39.96</v>
+        <v>4</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>26.92</v>
+        <v>2.69</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>27.46</v>
+        <v>2.75</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.75</v>
+        <v>1.68</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>50.9</v>
+        <v>5.09</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.45</v>
+        <v>0.74</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40751.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>23.47</v>
+        <v>2.35</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>51.21</v>
+        <v>5.12</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>42.11</v>
+        <v>4.21</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>71.47</v>
+        <v>7.15</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>28.47</v>
+        <v>2.85</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.87</v>
+        <v>1.89</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>20.62</v>
+        <v>2.06</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>26.26</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>273.1</v>
+        <v>27.31</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>51.52</v>
+        <v>5.15</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>34.77</v>
+        <v>3.48</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>18.26</v>
+        <v>1.83</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>35.13</v>
+        <v>3.51</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>64.98</v>
+        <v>6.5</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_50.xlsx
+++ b/DATA_goal/Junction_Flooding_50.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.58</v>
+        <v>25.83</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.2</v>
+        <v>22.04</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.1</v>
+        <v>141.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.13</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.57</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.83</v>
+        <v>28.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>4.4</v>
+        <v>43.96</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.67</v>
+        <v>26.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.12</v>
+        <v>101.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.38</v>
+        <v>23.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_50.xlsx
+++ b/DATA_goal/Junction_Flooding_50.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>40750.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.43</v>
@@ -759,103 +759,103 @@
         <v>40750.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.66</v>
+        <v>13.663</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>9.48</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.256</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.83</v>
+        <v>25.835</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.04</v>
+        <v>22.038</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>10.31</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.2</v>
+        <v>32.203</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.43</v>
+        <v>14.428</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.7</v>
+        <v>6.704</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.033</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>10.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.83</v>
+        <v>10.834</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.15</v>
+        <v>3.152</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.27</v>
+        <v>9.269</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.83</v>
+        <v>7.834</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.477</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.02</v>
+        <v>141.017</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.13</v>
+        <v>27.129</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.356999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.57</v>
+        <v>18.573</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.34</v>
+        <v>9.343999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.282</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>16.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.88</v>
+        <v>7.879</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.65</v>
+        <v>6.649</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.93</v>
+        <v>7.927</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.06</v>
+        <v>12.065</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.31</v>
+        <v>28.314</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.85</v>
+        <v>4.849</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.93</v>
+        <v>10.931</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>40750.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.06</v>
+        <v>5.061</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.36</v>
+        <v>3.358</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.516</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>7.52</v>
@@ -881,85 +881,85 @@
         <v>3.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.71</v>
+        <v>16.706</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.75</v>
+        <v>4.746</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.37</v>
+        <v>2.366</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.06</v>
+        <v>4.064</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.5</v>
+        <v>3.497</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.101</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.05</v>
+        <v>3.054</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.22</v>
+        <v>5.221</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.62</v>
+        <v>2.616</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.96</v>
+        <v>43.963</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.68</v>
+        <v>9.679</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.35</v>
+        <v>3.346</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.69</v>
+        <v>6.695</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.17</v>
+        <v>3.168</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.026999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.72</v>
+        <v>2.718</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.19</v>
+        <v>2.192</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.64</v>
+        <v>2.644</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.39</v>
+        <v>4.386</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.21</v>
+        <v>15.208</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.577</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.68</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.49</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_50.xlsx
+++ b/DATA_goal/Junction_Flooding_50.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -967,103 +967,207 @@
         <v>40750.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.67</v>
+        <v>9.666</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.96</v>
+        <v>6.958</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.19</v>
+        <v>19.192</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.23</v>
+        <v>16.234</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.46</v>
+        <v>7.465</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.68</v>
+        <v>26.683</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>10.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.93</v>
+        <v>4.933</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.81</v>
+        <v>7.813</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.82</v>
+        <v>7.823</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.042</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.3</v>
+        <v>2.295</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.9</v>
+        <v>6.903</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.45</v>
+        <v>10.452</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.77</v>
+        <v>5.771</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.313</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.19</v>
+        <v>101.191</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.88</v>
+        <v>19.882</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>6.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.51</v>
+        <v>13.509</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.92</v>
+        <v>6.916</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.07</v>
+        <v>13.068</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.8</v>
+        <v>5.801</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.94</v>
+        <v>4.936</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.86</v>
+        <v>5.859</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.696</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.75</v>
+        <v>23.754</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.6</v>
+        <v>3.604</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.07</v>
+        <v>8.073</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.49</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_50.xlsx
+++ b/DATA_goal/Junction_Flooding_50.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -967,207 +967,103 @@
         <v>40750.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.666</v>
+        <v>9.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.958</v>
+        <v>6.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.192</v>
+        <v>19.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.234</v>
+        <v>16.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.465</v>
+        <v>7.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.683</v>
+        <v>26.68</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>10.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.933</v>
+        <v>4.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.813</v>
+        <v>7.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.823</v>
+        <v>7.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.042</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.295</v>
+        <v>2.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.903</v>
+        <v>6.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.452</v>
+        <v>10.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.771</v>
+        <v>5.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.184</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.191</v>
+        <v>101.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.882</v>
+        <v>19.88</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>6.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.509</v>
+        <v>13.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.916</v>
+        <v>6.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.068</v>
+        <v>13.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.801</v>
+        <v>5.8</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.936</v>
+        <v>4.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.859</v>
+        <v>5.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.696</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.754</v>
+        <v>23.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.604</v>
+        <v>3.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.073</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.49</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.64</v>
+        <v>8.07</v>
       </c>
     </row>
   </sheetData>
